--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,37 +893,38 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -923,10 +936,13 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1107,7 @@
         <v>1200</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
@@ -1090,34 +1116,37 @@
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F18" s="3">
         <v>-600</v>
@@ -1134,34 +1163,37 @@
         <v>-600</v>
       </c>
       <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1226,7 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1202,28 +1235,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-200</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
       </c>
       <c r="O20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="F21" s="3">
         <v>-500</v>
@@ -1240,34 +1276,37 @@
         <v>-500</v>
       </c>
       <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
       </c>
       <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1721,7 +1790,7 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1730,72 +1799,78 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>200</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
       </c>
       <c r="O32" s="3">
+        <v>200</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
       </c>
       <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
       </c>
       <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E41" s="3">
         <v>13400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,17 +2250,17 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2187,52 +2285,58 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E46" s="3">
         <v>13500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,11 +2423,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E54" s="3">
         <v>13600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,37 +2748,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2658,13 +2788,16 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2693,22 +2826,25 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -2725,7 +2861,7 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2734,33 +2870,36 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -2769,34 +2908,37 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>1100</v>
@@ -2822,11 +2964,11 @@
         <v>1100</v>
       </c>
       <c r="K61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2856,11 +3001,11 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -2868,8 +3013,8 @@
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2877,14 +3022,17 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,16 +3169,19 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -3033,34 +3190,37 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>1400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>1300</v>
       </c>
       <c r="K66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E76" s="3">
         <v>13100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
       </c>
       <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3666,14 +3864,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>14400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,34 +920,36 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
-      </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
@@ -930,7 +958,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -939,10 +967,16 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,43 +1217,49 @@
         <v>-1200</v>
       </c>
       <c r="F18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="G18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
       <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-700</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1229,37 +1297,43 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-300</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
       </c>
       <c r="O20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,54 +1341,60 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-500</v>
       </c>
       <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1793,84 +1933,96 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>300</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
       </c>
       <c r="O32" s="3">
+        <v>300</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F41" s="3">
         <v>12200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>14900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>400</v>
       </c>
       <c r="Q41" s="3">
+        <v>500</v>
+      </c>
+      <c r="R41" s="3">
+        <v>400</v>
+      </c>
+      <c r="S41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,19 +2433,25 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2262,10 +2460,10 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2288,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F46" s="3">
         <v>12300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>13500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>14500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>15600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,16 +2592,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2426,11 +2642,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2581,20 +2821,20 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F54" s="3">
         <v>12400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>15200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>700</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
       </c>
       <c r="Q54" s="3">
+        <v>700</v>
+      </c>
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2829,60 +3097,66 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -2890,55 +3164,67 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2958,23 +3244,23 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
       </c>
       <c r="L61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3004,35 +3296,41 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-17900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F76" s="3">
         <v>12200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3867,14 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,46 +4536,52 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-700</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4326,20 +4786,20 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4580,44 +5072,50 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>14400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,46 +935,47 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -973,10 +987,13 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>1200</v>
@@ -1170,7 +1197,7 @@
         <v>1200</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
@@ -1179,34 +1206,37 @@
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1200</v>
+        <v>-3000</v>
       </c>
       <c r="F18" s="3">
         <v>-1200</v>
@@ -1223,7 +1253,7 @@
         <v>-1200</v>
       </c>
       <c r="H18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
@@ -1232,34 +1262,37 @@
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1303,7 +1337,7 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1312,28 +1346,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
       </c>
       <c r="R20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,16 +1378,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1200</v>
+        <v>-3000</v>
       </c>
       <c r="F21" s="3">
         <v>-1200</v>
       </c>
       <c r="G21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
@@ -1359,34 +1396,37 @@
         <v>-500</v>
       </c>
       <c r="K21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1436,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1200</v>
       </c>
       <c r="F23" s="3">
         <v>-1200</v>
       </c>
       <c r="G23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1200</v>
       </c>
       <c r="F26" s="3">
         <v>-1200</v>
       </c>
       <c r="G26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1200</v>
       </c>
       <c r="F27" s="3">
         <v>-1200</v>
       </c>
       <c r="G27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1939,7 +2009,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1948,81 +2018,87 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>200</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
       </c>
       <c r="R32" s="3">
+        <v>200</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1200</v>
       </c>
       <c r="F33" s="3">
         <v>-1200</v>
       </c>
       <c r="G33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1200</v>
       </c>
       <c r="F35" s="3">
         <v>-1200</v>
       </c>
       <c r="G35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
         <v>10300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,35 +2535,38 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2492,84 +2591,90 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
         <v>10700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>500</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2598,19 +2703,22 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2648,11 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,8 +2941,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2836,8 +2956,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,46 +3141,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3059,13 +3190,16 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3103,39 +3237,42 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3144,7 +3281,7 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3153,25 +3290,28 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,16 +3319,16 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -3197,34 +3337,37 @@
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3250,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>1100</v>
@@ -3259,11 +3402,11 @@
         <v>1100</v>
       </c>
       <c r="N61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -3302,11 +3448,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3314,8 +3460,8 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3323,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,16 +3655,16 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -3515,34 +3673,37 @@
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>1400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>1300</v>
       </c>
       <c r="N66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E76" s="3">
         <v>10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1200</v>
       </c>
       <c r="F81" s="3">
         <v>-1200</v>
       </c>
       <c r="G81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4271,14 +4470,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,8 +5016,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -4801,8 +5031,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5078,44 +5324,47 @@
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>14400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,43 +961,45 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
-      </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
@@ -981,7 +1008,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -990,10 +1017,16 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1200</v>
       </c>
       <c r="H18" s="3">
         <v>-1200</v>
       </c>
       <c r="I18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="J18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
       <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1340,37 +1407,43 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-300</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
       </c>
       <c r="R20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-500</v>
       </c>
       <c r="K21" s="3">
         <v>-500</v>
       </c>
       <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,11 +1518,11 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2012,93 +2151,105 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>300</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
       </c>
       <c r="R32" s="3">
+        <v>300</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>200</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F41" s="3">
         <v>8700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>10300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>14300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>400</v>
-      </c>
-      <c r="R41" s="3">
-        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>400</v>
       </c>
       <c r="T41" s="3">
+        <v>500</v>
+      </c>
+      <c r="U41" s="3">
+        <v>400</v>
+      </c>
+      <c r="V41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,28 +2729,34 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2568,10 +2765,10 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2594,76 +2791,88 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>12300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>13500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2676,11 +2885,11 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2706,25 +2915,31 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2759,11 +2974,17 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,25 +3163,31 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2959,11 +3198,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F54" s="3">
         <v>9400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>700</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
       </c>
       <c r="T54" s="3">
+        <v>700</v>
+      </c>
+      <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,55 +3412,61 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3240,69 +3507,75 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3310,8 +3583,14 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,55 +3598,61 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>800</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,23 +3681,23 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>1100</v>
       </c>
       <c r="O61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,19 +3707,25 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3451,35 +3742,41 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3970,61 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-27200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-14700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-11600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F76" s="3">
         <v>8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4473,14 +4870,20 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,55 +5186,61 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
       </c>
       <c r="L89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5019,11 +5478,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5034,11 +5493,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,25 +5792,31 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5334,37 +5825,43 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>14400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>13700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,55 +976,56 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
+        <v>200</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1023,10 +1037,13 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,25 +1258,26 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>1200</v>
@@ -1259,7 +1286,7 @@
         <v>1200</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
@@ -1268,34 +1295,37 @@
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,16 +1333,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1200</v>
       </c>
       <c r="I18" s="3">
         <v>-1200</v>
@@ -1321,7 +1351,7 @@
         <v>-1200</v>
       </c>
       <c r="K18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
@@ -1330,34 +1360,37 @@
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1413,7 +1447,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1422,28 +1456,31 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
       </c>
       <c r="T20" s="3">
         <v>-200</v>
       </c>
       <c r="U20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,25 +1488,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1200</v>
       </c>
       <c r="I21" s="3">
         <v>-1200</v>
       </c>
       <c r="J21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-500</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
@@ -1478,34 +1515,37 @@
         <v>-500</v>
       </c>
       <c r="N21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1564,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1200</v>
       </c>
       <c r="I23" s="3">
         <v>-1200</v>
       </c>
       <c r="J23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1200</v>
       </c>
       <c r="I26" s="3">
         <v>-1200</v>
       </c>
       <c r="J26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1200</v>
       </c>
       <c r="I27" s="3">
         <v>-1200</v>
       </c>
       <c r="J27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2142,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2157,7 +2227,7 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2166,90 +2236,96 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
       </c>
       <c r="T32" s="3">
         <v>200</v>
       </c>
       <c r="U32" s="3">
+        <v>200</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1200</v>
       </c>
       <c r="I33" s="3">
         <v>-1200</v>
       </c>
       <c r="J33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1200</v>
       </c>
       <c r="I35" s="3">
         <v>-1200</v>
       </c>
       <c r="J35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,35 +2843,35 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2797,70 +2896,76 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>500</v>
       </c>
       <c r="U46" s="3">
+        <v>500</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2870,12 +2975,12 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,8 +2996,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2935,14 +3043,14 @@
       <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2980,11 +3088,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,7 +3301,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3189,8 +3309,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3204,8 +3324,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,55 +3533,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3460,13 +3591,16 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3513,48 +3647,51 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -3563,7 +3700,7 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3572,51 +3709,54 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
       </c>
       <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
@@ -3625,34 +3765,37 @@
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3687,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>1100</v>
@@ -3696,11 +3839,11 @@
         <v>1100</v>
       </c>
       <c r="Q61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3727,8 +3873,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3748,11 +3894,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3760,8 +3906,8 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3769,14 +3915,17 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,34 +4116,37 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
       </c>
       <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
@@ -3997,34 +4155,37 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>1400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1300</v>
       </c>
       <c r="P66" s="3">
         <v>1300</v>
       </c>
       <c r="Q66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E76" s="3">
         <v>5700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1200</v>
       </c>
       <c r="I81" s="3">
         <v>-1200</v>
       </c>
       <c r="J81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4876,14 +5075,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5484,8 +5714,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -5499,8 +5729,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5831,37 +6077,40 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>14400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -986,49 +1000,49 @@
         <v>700</v>
       </c>
       <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1040,10 +1054,13 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,28 +1285,29 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1200</v>
       </c>
       <c r="J17" s="3">
         <v>1200</v>
@@ -1289,7 +1316,7 @@
         <v>1200</v>
       </c>
       <c r="L17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
@@ -1298,34 +1325,37 @@
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,19 +1363,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1200</v>
       </c>
       <c r="J18" s="3">
         <v>-1200</v>
@@ -1354,7 +1384,7 @@
         <v>-1200</v>
       </c>
       <c r="L18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
@@ -1363,34 +1393,37 @@
         <v>-600</v>
       </c>
       <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1435,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1450,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1459,28 +1493,31 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-200</v>
       </c>
       <c r="U20" s="3">
         <v>-200</v>
       </c>
       <c r="V20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,28 +1525,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1200</v>
       </c>
       <c r="J21" s="3">
         <v>-1200</v>
       </c>
       <c r="K21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
       </c>
       <c r="M21" s="3">
         <v>-500</v>
@@ -1518,34 +1555,37 @@
         <v>-500</v>
       </c>
       <c r="O21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,8 +1607,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1200</v>
       </c>
       <c r="J23" s="3">
         <v>-1200</v>
       </c>
       <c r="K23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1200</v>
       </c>
       <c r="J26" s="3">
         <v>-1200</v>
       </c>
       <c r="K26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1200</v>
       </c>
       <c r="J27" s="3">
         <v>-1200</v>
       </c>
       <c r="K27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2215,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2230,7 +2300,7 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2239,93 +2309,99 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>200</v>
       </c>
       <c r="U32" s="3">
         <v>200</v>
       </c>
       <c r="V32" s="3">
+        <v>200</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1200</v>
       </c>
       <c r="J33" s="3">
         <v>-1200</v>
       </c>
       <c r="K33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1200</v>
       </c>
       <c r="J35" s="3">
         <v>-1200</v>
       </c>
       <c r="K35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,35 +2945,35 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
+        <v>500</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2978,12 +3083,12 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2999,8 +3104,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3046,14 +3154,14 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3091,11 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3304,7 +3424,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3312,8 +3432,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3327,8 +3447,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,58 +3664,59 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3594,13 +3725,16 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,51 +3784,54 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3703,7 +3840,7 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3712,54 +3849,57 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
@@ -3768,34 +3908,37 @@
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3833,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>1100</v>
@@ -3842,11 +3985,11 @@
         <v>1100</v>
       </c>
       <c r="R61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3876,8 +4022,8 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3897,11 +4043,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -3909,8 +4055,8 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3918,14 +4064,17 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,37 +4274,40 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
@@ -4158,34 +4316,37 @@
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>1400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1300</v>
       </c>
       <c r="Q66" s="3">
         <v>1300</v>
       </c>
       <c r="R66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1200</v>
       </c>
       <c r="J81" s="3">
         <v>-1200</v>
       </c>
       <c r="K81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5078,14 +5277,17 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-400</v>
       </c>
       <c r="T89" s="3">
         <v>-400</v>
       </c>
       <c r="U89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5717,8 +5947,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5732,8 +5962,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6080,37 +6326,40 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>14400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>2300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +836,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,55 +1016,57 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
         <v>700</v>
       </c>
       <c r="F12" s="3">
+        <v>700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>700</v>
+      </c>
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
-      </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
@@ -1048,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1057,10 +1084,16 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1337,84 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1200</v>
       </c>
       <c r="L17" s="3">
         <v>1200</v>
       </c>
       <c r="M17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
       </c>
       <c r="U17" s="3">
+        <v>700</v>
+      </c>
+      <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1422,73 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1200</v>
       </c>
       <c r="L18" s="3">
         <v>-1200</v>
       </c>
       <c r="M18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="N18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-700</v>
       </c>
       <c r="T18" s="3">
         <v>-600</v>
       </c>
       <c r="U18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,14 +1524,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1472,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1487,37 +1554,43 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-300</v>
       </c>
       <c r="U20" s="3">
         <v>-200</v>
       </c>
       <c r="V20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,72 +1598,78 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-500</v>
       </c>
       <c r="P21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1610,11 +1689,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,14 +2412,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2288,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2303,105 +2442,117 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>300</v>
       </c>
       <c r="U32" s="3">
         <v>200</v>
       </c>
       <c r="V32" s="3">
+        <v>300</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>14900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>15400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>400</v>
-      </c>
-      <c r="V41" s="3">
-        <v>500</v>
       </c>
       <c r="W41" s="3">
         <v>400</v>
       </c>
       <c r="X41" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3124,19 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
@@ -2948,25 +3145,25 @@
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2975,10 +3172,10 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3001,76 +3198,88 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>11700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>12300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>13500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3086,15 +3295,15 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3107,11 +3316,11 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3137,13 +3346,19 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3157,17 +3372,17 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3202,11 +3417,17 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3642,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3427,19 +3666,19 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -3450,11 +3689,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>15700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>600</v>
-      </c>
-      <c r="V54" s="3">
-        <v>700</v>
       </c>
       <c r="W54" s="3">
         <v>600</v>
       </c>
       <c r="X54" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3924,84 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3787,22 +4054,28 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3821,47 +4094,47 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
@@ -3869,76 +4142,88 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>800</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3979,23 +4264,23 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>1100</v>
       </c>
       <c r="S61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U61" s="3">
         <v>1000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4005,13 +4290,19 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4025,11 +4316,11 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4046,35 +4337,41 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>100</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>800</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-27200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-24400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-17900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-15400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-14700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-12900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-11600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-11100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F76" s="3">
         <v>3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5280,14 +5677,20 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,67 +6053,73 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1800</v>
       </c>
       <c r="G89" s="3">
         <v>-1300</v>
       </c>
       <c r="H89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-500</v>
       </c>
       <c r="O89" s="3">
         <v>-700</v>
       </c>
       <c r="P89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-300</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
@@ -5694,8 +6127,14 @@
       <c r="X89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6377,19 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5950,11 +6409,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -5965,11 +6424,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,31 +6775,37 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6329,37 +6820,43 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>14400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-900</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1800</v>
       </c>
       <c r="G102" s="3">
         <v>-1300</v>
       </c>
       <c r="H102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>13700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,16 +1031,17 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>700</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
@@ -1036,49 +1050,49 @@
         <v>700</v>
       </c>
       <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
       <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
-      </c>
-      <c r="V12" s="3">
-        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
@@ -1090,10 +1104,13 @@
         <v>100</v>
       </c>
       <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,37 +1365,38 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-1700</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>1200</v>
@@ -1378,7 +1405,7 @@
         <v>1200</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
@@ -1387,34 +1414,37 @@
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,28 +1452,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1200</v>
       </c>
       <c r="M18" s="3">
         <v>-1200</v>
@@ -1452,7 +1482,7 @@
         <v>-1200</v>
       </c>
       <c r="O18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
@@ -1461,34 +1491,37 @@
         <v>-600</v>
       </c>
       <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-300</v>
       </c>
       <c r="Z18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,17 +1558,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1545,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1560,7 +1594,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1569,28 +1603,31 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-200</v>
       </c>
       <c r="X20" s="3">
         <v>-200</v>
       </c>
       <c r="Y20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,37 +1635,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1200</v>
       </c>
       <c r="M21" s="3">
         <v>-1200</v>
       </c>
       <c r="N21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
@@ -1637,42 +1674,45 @@
         <v>-500</v>
       </c>
       <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1695,8 +1735,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-2300</v>
       </c>
       <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1200</v>
       </c>
       <c r="M23" s="3">
         <v>-1200</v>
       </c>
       <c r="N23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2300</v>
       </c>
       <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1200</v>
       </c>
       <c r="M26" s="3">
         <v>-1200</v>
       </c>
       <c r="N26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1200</v>
       </c>
       <c r="M27" s="3">
         <v>-1200</v>
       </c>
       <c r="N27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,17 +2482,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2433,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2448,7 +2518,7 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2457,102 +2527,108 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
-      </c>
-      <c r="W32" s="3">
-        <v>200</v>
       </c>
       <c r="X32" s="3">
         <v>200</v>
       </c>
       <c r="Y32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1200</v>
       </c>
       <c r="M33" s="3">
         <v>-1200</v>
       </c>
       <c r="N33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1200</v>
       </c>
       <c r="M35" s="3">
         <v>-1200</v>
       </c>
       <c r="N35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,16 +3226,19 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -3151,35 +3250,35 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -3204,82 +3303,88 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>500</v>
       </c>
       <c r="X46" s="3">
         <v>500</v>
       </c>
       <c r="Y46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3301,12 +3406,12 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3322,8 +3427,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3378,14 +3486,14 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3423,16 +3531,19 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3657,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3672,7 +3792,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3680,8 +3800,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3695,8 +3815,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,67 +4056,68 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -3995,13 +4126,16 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4060,22 +4194,25 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4089,31 +4226,31 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -4122,7 +4259,7 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4131,63 +4268,66 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
@@ -4196,42 +4336,45 @@
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4270,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>1100</v>
@@ -4279,11 +4422,11 @@
         <v>1100</v>
       </c>
       <c r="U61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4296,16 +4439,19 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4322,8 +4468,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4343,11 +4489,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
-      </c>
-      <c r="S62" s="3">
-        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -4355,8 +4501,8 @@
       <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>100</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -4364,14 +4510,17 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,46 +4747,49 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
@@ -4640,34 +4798,37 @@
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>1400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1300</v>
       </c>
       <c r="T66" s="3">
         <v>1300</v>
       </c>
       <c r="U66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1200</v>
       </c>
       <c r="M81" s="3">
         <v>-1200</v>
       </c>
       <c r="N81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5683,14 +5882,17 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-400</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
       </c>
       <c r="X89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,16 +6610,19 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6415,8 +6645,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -6430,8 +6660,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,17 +7024,20 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6807,8 +7053,8 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6826,37 +7072,40 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>14400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>2300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>RCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,10 +1055,10 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>700</v>
@@ -1053,49 +1067,49 @@
         <v>700</v>
       </c>
       <c r="I12" s="3">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
-      </c>
-      <c r="W12" s="3">
-        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
@@ -1107,10 +1121,13 @@
         <v>100</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,17 +1203,20 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,40 +1392,41 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1200</v>
@@ -1408,7 +1435,7 @@
         <v>1200</v>
       </c>
       <c r="P17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
@@ -1417,34 +1444,37 @@
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,31 +1482,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1200</v>
       </c>
       <c r="N18" s="3">
         <v>-1200</v>
@@ -1485,7 +1515,7 @@
         <v>-1200</v>
       </c>
       <c r="P18" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="Q18" s="3">
         <v>-600</v>
@@ -1494,34 +1524,37 @@
         <v>-600</v>
       </c>
       <c r="S18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-300</v>
       </c>
       <c r="AA18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,17 +1595,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1582,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1597,7 +1631,7 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1606,28 +1640,31 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-200</v>
       </c>
       <c r="Y20" s="3">
         <v>-200</v>
       </c>
       <c r="Z20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,40 +1672,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1200</v>
       </c>
       <c r="N21" s="3">
         <v>-1200</v>
       </c>
       <c r="O21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
       </c>
       <c r="Q21" s="3">
         <v>-500</v>
@@ -1677,34 +1714,37 @@
         <v>-500</v>
       </c>
       <c r="S21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1714,8 +1754,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1738,8 +1778,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1200</v>
       </c>
       <c r="N23" s="3">
         <v>-1200</v>
       </c>
       <c r="O23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1200</v>
       </c>
       <c r="N26" s="3">
         <v>-1200</v>
       </c>
       <c r="O26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1200</v>
       </c>
       <c r="N27" s="3">
         <v>-1200</v>
       </c>
       <c r="O27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,17 +2555,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2506,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2521,7 +2591,7 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2530,105 +2600,111 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>200</v>
       </c>
       <c r="Y32" s="3">
         <v>200</v>
       </c>
       <c r="Z32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1200</v>
       </c>
       <c r="N33" s="3">
         <v>-1200</v>
       </c>
       <c r="O33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1200</v>
       </c>
       <c r="N35" s="3">
         <v>-1200</v>
       </c>
       <c r="O35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,19 +3325,22 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -3253,35 +3352,35 @@
         <v>500</v>
       </c>
       <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3306,115 +3405,121 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1200</v>
-      </c>
-      <c r="X46" s="3">
-        <v>500</v>
       </c>
       <c r="Y46" s="3">
         <v>500</v>
       </c>
       <c r="Z46" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3430,8 +3535,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3489,14 +3597,14 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3534,11 +3642,14 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3795,7 +3915,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3803,8 +3923,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3818,8 +3938,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,70 +4187,71 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4129,13 +4260,16 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4197,27 +4331,30 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4229,31 +4366,31 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -4262,7 +4399,7 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4271,66 +4408,69 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
       <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
@@ -4339,34 +4479,37 @@
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
       <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,7 +4520,7 @@
         <v>800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4416,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>1100</v>
@@ -4425,11 +4568,11 @@
         <v>1100</v>
       </c>
       <c r="V61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4453,8 +4599,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4471,8 +4617,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4492,11 +4638,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
@@ -4504,8 +4650,8 @@
       <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>100</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -4513,14 +4659,17 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,49 +4905,52 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
       <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
@@ -4801,34 +4959,37 @@
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>1400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1300</v>
       </c>
       <c r="U66" s="3">
         <v>1300</v>
       </c>
       <c r="V66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-11100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1200</v>
       </c>
       <c r="N81" s="3">
         <v>-1200</v>
       </c>
       <c r="O81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5885,14 +6084,17 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-400</v>
       </c>
       <c r="X89" s="3">
         <v>-400</v>
       </c>
       <c r="Y89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,16 +6840,19 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6648,8 +6878,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -6663,8 +6893,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,11 +7282,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7056,8 +7302,8 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7075,37 +7321,40 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>14400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>2300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
     </row>
